--- a/docs/论文调研/国内外相关研究调研报告.xlsx
+++ b/docs/论文调研/国内外相关研究调研报告.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Project\01.Academy\02.SurgeryRebots\docs\论文调研\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Project\01_academy\02_SurgeryRobot\surgeryrobot\docs\论文调研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C927390-4018-435C-ACAC-DAEE28B0BC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7F198-C7AA-4369-B73C-44736581024C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="国内相关研究调研报告" sheetId="1" r:id="rId1"/>
+    <sheet name="国内外相关研究调研报告" sheetId="1" r:id="rId1"/>
     <sheet name="相关专利" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,29 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019111564104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于5G网络的穿刺机器人导航系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本发明提供一种基于5G网络的穿刺机器人导航系统，包括本地穿刺导航系统和异地穿刺服务器，所述本地穿刺导航系统和异地穿刺服务器通过5G网络通信；本地穿刺导航系统首先将CT坐标系、机器人基座坐标系和双目相机世界坐标系通过标记点进行空间映射，将CT坐标系通过固定好的双目相机世界坐标系映射到机器人基座坐标系下，映射后发送当前标记点的位置给机器人，然后给医生确定靶点路径，靶点路径通过5G网络发送至异地穿刺服务器，医生通过异地穿刺服务器控制机器人完成手术。本发明异地操作，通过5G的低延时，高效率，医生可在异地进行系统操作，实时传输视频图像，机械臂数据，给手术房的医生提供精确的穿刺导航路径，供医生进行穿刺。</t>
-  </si>
-  <si>
-    <t>2019108085161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放射粒子植入穿刺机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种放射粒子植入穿刺机器人，其包括：超声外设模块，其包括用于夹持穿刺针的针自动夹持组件；针头推进模块，用于旋转驱动超声外设模块在换针位置和穿刺位置之间切换，以及用于沿穿刺针的轴向推进或拔出穿刺针；针头仓储模块，其包括多个针存储仓，每个针存储仓用于储存一根穿刺针，每个针存储仓均可自动到达针头传递位置；针头递送模块，包括电动夹和水平传送组件，电动夹与针头仓储模块的针头传递位置对应且用于夹取针头传递位置上的针存储仓中的穿刺针，水平传送组件用于沿穿刺针的轴向驱动电动夹使穿刺针插入处于换针位置上的针自动夹持组件中并被其自动夹持。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201910412717X</t>
   </si>
   <si>
@@ -110,22 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配准问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019106504599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种穿刺机器人及其机械臂用进针系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 本发明公开了一种穿刺机器人及其机械臂用进针系统，包括设于机械臂上的针体；机械臂包括夹持座和中段夹持部，夹持座上设有第一压力检测装置；控制装置根据第一压力检测装置的压力信号控制机械臂带动针体进行相应的动作。在针体的中段套装中段夹持部对针体进行夹持，防止针体受到人体肌肉和组织的阻力而发生弯曲形变，增加针体的刚性，降低针尖至针体中段的穿刺路径的误差，使得穿刺更加精准，并通过在夹持座上设置第一压力检测装置对针体的行进压力进行检测，以当针体在进针过程中遇到脏器或器官时，通过控制装置控制机械臂带动针体进行相应的动作，及时调整针体的进针路径，以对脏器或器官进行有效规避。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019103370427</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,110 +98,474 @@
     <t>本发明公开了一种基于狼群算法的穿刺机器人柔性针运动路径规划装置及方法，属于智能医疗机器人控制与决策领域。本发明路径规划装置主要包括图像采集器和位于计算机上的路径规划模块。路径规划模块包括路径模型和目标函数构建模块、狼群算法参数输入和初始化模块、狼群算法执行模块和最优路径判断模块。本发明方法基于图像采集器及计算机程序模块，建立柔性针的穿刺路径模型和路径优化的目标函数，生成到靶点的路径作为人工狼，以路径的目标函数值作为更新标准，更新头狼位置，根据设置的最大迭代次数和穿刺路径模型的约束条件，来获得最优路径。本发明快速解决了应用于穿刺针的路径规划问题，缩短了路径规划耗时，获得满足要求的规划路径。</t>
   </si>
   <si>
-    <t>2018115561774</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于双目视觉的动态补偿功能的穿刺机器人导航系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本发明公开了基于双目视觉的动态补偿功能的穿刺机器人导航系统，属于导航技术领域，包括底座，底座的顶部安装有支撑柱，且支撑柱的顶部交接有第一链接块，第一链接块的外侧安装有第一交接臂，且第一交接臂的一端交接有第二链接块，第二链接块的外侧安装有第二交接臂，且第二交接臂的外侧交接有第三链接块，第三链接块的外侧安装有第三交接臂，且第三交接臂的一端交接有第四链接块，第四链接块的外侧设置有穿刺针，底座的内部设置有机械臂控制设备。本发明可以减少人为穿刺带来的误差，借助以机器人定位精度高、运行稳定、安全可靠的特点，完成医学外科微创穿刺手术中辅助精准定位的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019101117034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手末端装置及采用该装置的肺穿刺机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本申请公开了一种机械手末端装置及采用该装置的肺穿刺机器人。该机械手末端装置包括穿刺针、带动所述穿刺针进行穿刺动作的线性运动单元、对所述穿刺针的穿刺力进行反馈的力反馈单元和对所述穿刺针进行固定的夹持单元，所述力反馈单元安装在所述线性运动单元上，所述力反馈单元可在所述线性运动单元上进行线性运动，所述穿刺针可拆卸的固定在所述夹持单元上，所述夹持单元与所述力反馈单元连接。本申请解决了穿刺机械手工作效率低、准确度低、操作难度大的技术问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019101118268</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六自由度机械手臂及采用该机械手臂的肺穿刺机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本申请公开了一种六自由度机械手臂及采用该机械手臂的肺穿刺机器人，包括机械手末端装置、四个直线运动机构和两个旋转运动机构，第二旋转运动机构与机械手末端装置连接，以带动机械手末端旋转，第一旋转运动机构与第二旋转运动机构连接，以带动机械手末端装置和第二旋转运动机构整体旋转，第三直线运动机构与第一旋转运动机构连接，以带动机械手末端装置前后移动，第二直线运动机构与第三直线运动机构连接，以带动机械手末端装置左右移动，第一直线运动机构与第二直线运动机构连接，以带动机械手末端装置上下移动，机械手末端装置设置有第四直线运动机构和穿刺针。本申请解决了穿刺用机械手臂运动路径不直观和操控性差的技术问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018115498728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于微创手术穿刺机器人的进针机构</t>
-  </si>
-  <si>
-    <t>本发明公开了一种用于微创手术穿刺机器人的进针机构，包括盒体、沿长度方向设置于所述盒体内的直线导轨、设置在所述直线导轨上的进针滑块、内端设置在所述进针滑块上且外端沿长度方向穿出所述盒体的穿刺针、用于驱动所述进针滑块在所述直线导轨上滑动的驱动组件及设置在所述盒体内的弹针组件。本发明的用于微创手术穿刺机器人的进针机构，通过设置弹针组件，能实现穿刺针的快速进针，能减轻人体的疼痛感；而后再通过驱动组件实现平稳慢速的进针，直到病灶点；本发明通过设置缓冲槽和顶块能减小顶块与限位块之间的刚性冲击力，保护顶块与限位块。本发明结构简单，传动效率高，操作方便，具有很好的应用前景。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019100550362</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力反馈装置及肺穿刺机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本申请公开了一种力反馈装置及肺穿刺机器人，通过设置：固定架、线缆张紧装置、受力作用件、滑杆、钢丝绳、滑动轮机构和反馈力施加模块；所述固定架包括：顶板和底板；所述滑杆固定设于所述顶板和底板之间；所述顶板上固定设有所述滑动轮机构；所述滑杆上固定设有受力作用件，用于使所述受力作用件能够沿着所述滑杆上下滑动；所述底板上固定设有所述线缆张紧装置和反馈力施加模块；所述受力作用件与所述钢丝绳固定连接，所述滑动轮机构、线缆张紧装置和反馈力施加模块均与所述钢丝绳连接，并构成闭环结构。达到了受力作用件可以进行长距离的直线运动的目的，从而实现了能有效降低回差，具有运动范围大，响应快，实时性高的技术效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017104565137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种CT引导下肺穿刺机器人的穿刺针夹持释放装置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本发明公开了一种CT引导下肺穿刺机器人的穿刺针夹持释放装置，该夹持释放装置包括远端电机、丝传动机构、执行机构和穿刺针；丝传动机构连接在远端电机和执行机构之间，远端电机通过自身的正反转使得丝传动机构将驱动力传递给执行机构，执行机构通过丝杠螺母副的配合实现对穿刺针的夹紧和设定范围内的释放。本发明中的执行机构在穿刺过程中能够根据病人的呼吸频率及进针深度实现“穿刺针的夹紧—自由释放针——重新夹紧针”的功能，进而提高穿刺手术的精度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201611270150X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种自动穿刺机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 本发明涉及一种自动穿刺机器人，包括：处理器、双目近红外成像装置和多轴穿刺机构；其中，所述双目近红外成像装置和所述多轴穿刺机构均电连接所述处理器；所述处理器接收并处理所述双目近红外成像装置的血管扫描信息，形成指令信息并发送至所述多轴穿刺机构，以使所述多轴穿刺机构携带穿刺针接近血管并完成穿刺过程。采用本发明提供的自动穿刺机器人可精确的引导穿刺针完成整个穿刺过程，穿刺的安全性和可靠性得到了保障。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017104565156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种CT图像实时引导的肺穿刺机器人本体机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本发明公开了一种CT图像实时引导的肺穿刺机器人本体机构，该机构包括基座、三坐标滑动平台、转角卡盘、RCM机构、进针机构和夹针机构；三坐标滑动平台安装在基座的横梁上实现平台在XYZ坐标系中三个方向的移动，RCM机构的一端通过转角卡盘与三坐标滑动平台中的Y轴模块连接，RCM机构的另一端与进针机构固定连接，转角卡盘的角度根据不同病人的体态进行角度的调整，RCM机构用于调整穿刺针的进针角度；夹针机构与进针机构固定连接，夹针机构通过外部的电机驱动实现穿刺针的夹持、释放和重新夹持的功能。机器人的驱动采用电机远端驱动用丝传动结构，能够达到CT扫描条件下使用非金属材料机构的要求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016102684052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能脊椎麻醉穿刺机器人系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本发明涉及一种智能脊椎麻醉穿刺机器人系统。其特征在于由机器人本体和图像处理系统两部分组成，机器人本体和图像处理系统之间通过无线网络进行数据通讯；所述的机器人本体设有执行模块、控制模块、压力传感器模块、A/D转换单元和电机驱动模块；所述的图像处理系统包括PC、校准模块和双目视觉系统。该系统通过图像处理技术来实现术前穿刺的路径规划；通过机器人自动控制技术来实现术中穿刺动作的执行；通过集成的压力传感器模块来对穿刺中的穿刺针的轴向受力进行实时检测和采集，实现穿刺过程的全程监测，能够有效避免手动穿刺可能会带来的意外的发生；整个系统的结构、逻辑简单，可信度高。</t>
+    <t>深圳铭杰医疗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助穿刺机器人及其控制方法、计算机设备、存储介质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京航空航天大学
+深圳市汇泰科电子有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于狼群算法的穿刺机器人柔性针运动路径规划装置及方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳安科高技术股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多形标志点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种多形标志点，用于手术导航系统的空间配准，其包括一标定体，一配准体，一用于将所述标志点固定在人体表面的粘贴装置，所述标定体由显影材料构成；所述配准体由所述标定体围起的不显影的中心孔构成；所述标定体设置成具有标识性功能的不同形状体。使各标志点形态各异、相互之间易于区分辨认，并且显影图像与实物容易一一对应，定位配准方便，不会发生错误标定，节省了术前配准时间，具有很高的实用价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN200420045848.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院深圳先进技术研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种标记点配准方法、装置及外科手术导航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明适用于医学图像处理及应用技术领域，提供了一种标记点配准的方法、装置及外科手术导航系统，所述方法包括：根据多次获取的各个物理空间标记点的物理坐标值和所述物理坐标值的平均值计算出各个物理空间标记点的空间定位误差；根据所述空间定位误差计算出各个物理空间标记点的权重矩阵；根据各个物理空间标记点的物理坐标值的平均值和各个图像空间标记点的图像坐标值的平均值，结合所述权重矩阵，在保证标记点配准误差FRE最小的前提下，用迭代法求解平移向量t和旋转矩阵R。本发明，可以充分考虑光学定位系统空间定位误差的各向异性性质，最终提高整个外科手术导航系统的导航精度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201210538735.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院深圳先进技术研究院
+南方医科大学珠江医院;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹部外科手术导航配准方法及系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本发明提供一种腹部外科手术导航配准方法，包括：获取手术区域的术前CT图像，并从所述术前CT图像中提取手术区域的术前表面数据；获取手术区域的术中RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D图像，并从所述术中RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D图像中提取手术区域的术中表面数据；计算所述术前表面数据和所述术中表面数据之间的索引关系，并根据所述索引关系计算所述术前CT图像与所述术中RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D图像之间的第一空间变换T1，并根据所述第一空间变换T1计算术中物理空间与术前图像空间之间的第二空间变换T2；根据所述第二空间变换T2，将穿刺工具在所述术中物理空间中的坐标变换至所述术前图像空间之中，开始导航过程。本发明还提供一种腹部外科手术导航配准系统。所述腹部外科手术导航配准方法可实现整个手术导航过程的自动化配准。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201510408663.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真健康（北京）医疗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种用于红外导航的体表定位方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明涉及一种用于红外导航的体表定位方法，包括：将用于手术导航的定位标记装置放置于体表，将所述定位标记装置的位置通过固定装置固定；根据所述定位标记装置的镂空点在体表做出标记；保持所述定位标记装置在体表的位置并进行CT扫描；移除所述定位标记装置依据皮肤标记点将所述定位标记装置放置于体表，并通过固定装置固定；使用定位针的尖端部依次与所述定位标记的各个镂空点的第一表面接合，随后确定所述定位针的尖端部的空间坐标根据所述定位标记的各个镂空点的所述CT扫描得到的图像中的位置，以及所述定位针与各个镂空点相接合时定位针尖端部的定位，对所述CT扫描得到的图像与手术导航系统进行配准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201810975797.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本申请公开一种采用结构光影像配准的手术导航系统及配准信号采集方法，系统包括结构光导航仪，静态基准，末端执行器及控制计算机；结构光导航仪上设有两台摄像机，摄像机用于对面部进行扫描，获取三维影像，并将三维影像发送至控制计算机；静态基准上设有可见光标记；控制计算机用于对影像进行处理，并将处理结果与原始模型进行配准；控制计算机设有显示屏，用于显示配准结果及完成状态监控。本申请提供的手术导航系统通过结构光扫描，获取患者面部的三维点云图像，并与原始模型进行配准，具有信息量大、获取速度快、特征点多等特点，在与术前MRI三维重建的数据进行面配准时，配准精度更高；改善了传统配准的特征点不够、配准精度低的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用结构光影像配准的手术导航系统及配准信号采集方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京和华瑞博科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201910012362.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		CN201320353350.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海优益基医疗器械有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用无线面配准的手术导航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本实用新型公开了一种采用无线面配准的手术导航系统，包括计算机、显示器、导航摄像探头、转换器、以及无线面配准工具；计算机电连接显示器，导航摄像探头电连接转换器，转换器与计算机电连接；无线面配准工具上设有红外传感器和红外线发射端，该红外传感器接收到导航摄像探头发射的红外信号后触发该红外线发射端发射红外线到需进行面配准部位表面；导航摄像探头收集需配准部位表面的红外信号，并将该信号通过转换器传递至计算机，计算机对信号进行处理并将处理结果与原始模型进行配准，通过显示器显示配准情况。本实用新型能简化实施导航手术前的配准工作，减少手术工具与病人的接触，降低病人感染风险，减少病人实际创口打开时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种用于手术导航的定位标记装置及配准系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本实用新型涉及一种用于手术导航的定位标记装置及配准系统，所述标记装置包括至少一个定位绑带，所述定位绑带包括：定位绑带本体、固定装置，以及多个镂空点；所述多个镂空点以多个组的形式设置在所述定位绑带本体上；所述多个镂空点的每一个都具有适合与用于手术导航的定位针相接合的第一表面，适合与绑带固定部位身体表面贴合的第二表面，以及贯穿所述第一表面和第二表面的通孔。本实用新型为无创伤设备，简便易行，两次佩戴的位置精度高。另外，使用病人两个平面上的多个点进行配准，扩大了配准区域和平面，使得配准的精度得到极大的提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201821374320.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种基于模型插值补偿的心脏实时动态重建技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201210009190.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本专利描述了一种基于模型插值补偿的心脏实时动态重建技术，提出基于X射线透视投影的接触式心脏四维标测重建方案，旨在弥补心室标测设备在成像方面的不足。专利中设计了一套具有唯一特征、容易识别的标志点的识别匹配技术，同时将一种基于真实心脏模型先验值的插值补偿算法应用于心脏四维重建技术，使得心脏四维重建结果更准确、操作更简单。在该技术的引导下，能够实时对心脏进行四维解剖重建，从而弥补当前心脏三维重建技术设备的不足并填补四维心脏重建技术设备的空白，提高手术效率。对提高我国心血管三维可视化水平、推动相关疾病的诊治和科研的发展具有重要意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201210121448.X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明涉及导航自动配准法，在获取被操作物体的CT扫描数据之前，将参考工具固定在被操作物体上，利用CT扫描得到包含参考工具图像的被操作物体的图像数据，依下述步骤：第一，用电脑图像识别技术，识别出图像数据中的参考工具图像在图像坐标系下的坐标和方位；第二，利用导航仪得到现实空间中参考工具在世界坐标系下的坐标和方位；第三，利用参考工具分别在这两个坐标系中的坐标和方位，求得一个变换矩阵，对世界坐标系下的点应用该变换矩阵，将世界坐标系旋转平移到与图像坐标系重合的位置，反之亦然，使同一点或对象在两个坐标系中的坐标一样。本发明避免了手工操作带来的人为误差，实现了让世界坐标系和图像坐标系进行自动配准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航自动配准法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州迪凯尔医疗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201210454220.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种信息处理技术领域的基于CT配准结果的光学导航定位系统及其导航方法，该系统包括：术前CT图像导入模块、图像分割模块、体表初始配准模块、术前CT图像与术中二维超声图像模块和术中导航模块；本发明采用虚拟现实和术中超声相结合的方式，补偿由于呼吸等因素造成的术中定位误差，从而实现对冠脉搭桥术的目标点的精确定位导航。通过对术前心脏CT图像数据中的心脏和冠脉血管树进行手动分割重建，然后在光学导航仪和基于CT与超声的术中配准误差校正的帮助下搭建一个将内窥镜和虚拟内窥镜相融合的增强虚拟现实环境，从而可实现对冠脉搭桥术的目标点的精确定位导航。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学医学院附属瑞金医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于CT配准结果的光学导航定位导航方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201210096129.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术导航方法和系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种手术导航方法包括：术前，通过核磁共振或CT的方式采集器官的三维影像；接收用户输入的规划穿刺轨迹，并显示在器官的三维影像中；术中，通过超声设备采集器官的立体图像，并通过跟踪仪将立体图像转换到手术室坐标系中；将术前的三维影像和术中的立体图像进行配准，得到最终位移矢量和旋转矩阵；根据最终位移矢量和旋转矩阵，将术前的三维图像和规划穿刺轨迹转换到手术室坐标系中显示；通过跟踪仪获取手术时采用的穿刺针的运动轨迹，并与术前的三维图像和规划穿刺轨迹同步显示在手术室坐标系中。本发明还提供一种对应的手术导航系统。上述导航系统用术前清晰的器官图像配准替换术中模糊图像，为操作、时间以及图像清晰度等方面提供了很大帮助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C形臂手术导航系统中的三维坐标系配准的方法，属于医疗器械技术领域。其方法包括：三维图像按照图像特点建立图像坐标系，按照物体方位及特征建立物体的世界坐标系三维图像中提取物体特征点集及其坐标，物体在世界坐标系的特征集点及其坐标通过外接设备获得；三维图像坐标系与世界坐标系统一坐标系的坐标轴方向；通过迭代就近点算法计算三维图像坐标系到世界坐标系转化关系。其优点是：该方法可用于三维C形臂扫描的物体所在的世界坐标系和三维图像坐标系的配准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201510389306.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京普爱医疗设备股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C形臂手术导航系统中的三维坐标系配准的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201510650347.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开了一种手术导航系统及一种手术导航系统的配准方法，所述手术导航系统包括动态基准、扫描装置、立体相机及处理装置。所述扫描装置用于在术前扫描所述手术部位以获取三维扫描图像。所述立体相机用于在术中获取所述手术部位实时图像。所述处理装置用于，处理所述三维扫描图像及所述实时图像，以计算所述实时图像上的任一点在所述三维扫描图像的特征匹配点。本发明实施方式的手术导航系统在配准过程中能够减少人工操作的误差，即使在病患部位的面积很小的情况下也能快速实现自动配准，缩短了手术时间，进而降低手术风险，符合微创手术的需求。</t>
+  </si>
+  <si>
+    <t>手术导航系统及手术导航系统的配准方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥美亚光电技术股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201611144112.X</t>
+  </si>
+  <si>
+    <t>本发明公开了一种肺部穿刺的手术导航系统，其包括：导航工作站、穿刺活检探针及导航马甲，所述穿刺活检探针和导航马甲均与导航工作站数据连接；该导航工作站设有电控单元，该电控单元内安装有操作系统及集成软件，所述集成软件包括：病人数据管理模块、影像数据三维可视化及处理模块、肺部区域分割模块、导航配置模块、术前规划模块、手术配准模块、手术引导模块、数学建模模块及术后手术评估模块。本发明用于针对整个肺区的疑似肿瘤早期检测，具有大幅提高手术精度、降低辐射剂量和手术复杂度、减少术后并发症以及缩短手术时间等优点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺部穿刺的手术导航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海精劢医疗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一种X光和术前CT引导下的肺穿刺手术定位方法
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种X光和术前CT引导下的肺穿刺手术定位方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		CN201710468359.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明涉及一种X光和术前CT引导下的肺穿刺手术定位方法，包括：第一步，建立肺部图像的三维形状模型和形变模型；第二步，将患者手术前CT图像与三维形状模型进行配准，配准结果结合形变模型计算患者肺部形变模型；第三步，生成模拟的X光图像；第四步，手术中采集X光图像与模拟的X光图像进行配准，计算术中肺部的二维位移场，计算穿刺针位置坐标信息；第五步，使用二维的位移场和肺部形变模型计算术中的三维图像的位移场信息；第六步，使用得到的三维位移场和术前CT图像生成配准后的三维图像，计算三维图像中病灶的位置信息；第七步，调整穿刺针位置直至完成穿刺定位。与现有技术相比，本发明具有快速、准确、适合实际应用等优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种基于探针的手术导航空间配准方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201611125167.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明属于医疗器械领域，具体涉及一种基于探针的手术导航空间配准方法。本方法采用点云的共面四点配准方法，将探针获取的病人空间点云与图像空间点云进行配准，获得两组点云的初步配准结果；根据初步配准结果使用点云的迭代配准方法，完成两组点云的配准，本发明方法经实施，结果表明，所述方法易于实施，配准效率高，精度稳定，可以应用在手术导航系统中，提高手术导航系统的配准精度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开了一种用于手术导航的配准系统及方法，其中系统包括：定定位装置用于固定于手术对象上并获取固定点的位置信息；处理器用于在手术对象的三维模拟图像中采集所述3个特征点的位置信息；移动定位装置用于在手术对象上获取3个定位点的位置信息；处理器还用于计算所述3个特征点所在的第一平面和所述3个定位点所在的第二平面，使得3个定位点与3个特征点拟合，获得所述固定点在所述三维模拟图像中的虚拟映射点。本发明利用定位点与特征点之间的拟合关系，将固定点映射到三维模拟图像中，提高了配准精度且减少了配准时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		CN201711451941.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于手术导航的配准系统及方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海霖晏医疗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201910073233.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学医学院附属第九人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明提供的一种基于MR的手术导航系统及其设备、方法和存储介质。通过探针单元、摄像单元获取对应病灶处的坐标原点数据集，以得到三维影像坐标模型，再获取MR投影单元对应的物理坐标信息、及人眼标定信息，使所述MR投影单元显示与现实场景中患者病灶处叠加并实时配准的所述三维影像信息。本发明能够在手术过程中实时在术区本身显示病灶位置、手术规划等，使术者视线和关注区域集中于术区，避免了在术区和导航计算机显示器上的反复切换，有效提高操作的可靠性和导航的精确性，避免了传统导航手术中术者反复将手术工具频繁更换为导航探针的繁琐步骤，提高了手术的连贯性，缩短了操作时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于MR的手术导航系统及其设备、方法和存储介质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种肿瘤自动穿刺机的激光引导定位装置及方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公开提供了一种肿瘤自动穿刺机的激光引导定位装置及方法，利用三维摄像机采集穿刺病床上患者进行三维图像，采集CT图像，并设置金属片作为标识点，根据所采集到的三维信息对患者进行三维点云重建，并且按照事先在患者身上放置的金属标识点建立三维点云空间坐标系，与CT图像进行对应，根据事先在CT图像中设计好的穿刺路径，确定穿刺点在三维点云中的坐标位置，根据确定的穿刺点进行激光指引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201910948840.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开了CT引导经皮肺穿刺活检术技术领域的一用于穿刺手术机器人CT舱内三维影像重建和定位分析系统，包括CT扫描机，所述CT扫描机电性输出连接数据读取模块，所述中央处理器分别电性输入连接电磁定位模块与路径规划模块，所述中央处理器分别电性输出连接图像处理模块、控制模块与显示模块，所述控制模块电性输出连接穿刺机器人，本系统中在硬件上不再将标记点置于患者体表，改为同时将六个标记点固定于CT检查床上，并且算法上应用改进的D－H逆向运动算法，实现了CT图像引导机器人进行经皮肺穿刺操作，定位机制可较好地保证穿刺精度，尤其可有效保证一次性穿刺成功率，且系统具有较高的鲁棒性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN202010207981.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于穿刺手术机器人CT舱内三维影像重建和定位分析系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州新医智越机器人科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛诺威盛科技（北京）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT引导穿刺的方法、装置及系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		CN202010683572.X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本申请公开了一种CT引导穿刺的方法、装置及系统。该申请的方法包括接收穿刺进针路径信息；以病灶位置为扫描中心，根据穿刺进针路径信息控制CT扫描架运动，运动形态包括移动和倾斜；通过CT扫描架上的激光灯标记穿刺进针点和穿刺导引角度。本申请以提出一种新的CT引导穿刺的方式以解决上述现有的CT引导穿刺方式中存在的费时、操作复杂、患者辐射剂量较大、结构复杂等至少一种缺陷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本实用新型公开了一种用于手术导航的触敏式配准工具及配准系统，其中，所述配准工具包括手持本体、用于产生定位信号的定位信号产生装置和用于感应人体皮肤，在感应到人体皮肤时开启所述定位信号产生装置的接触感应器。所述配准工具工作时，由接触感应器感应人体皮肤，并在感应到人体皮肤时开启定位信号产生装置；定位信号产生装置产生定位信号；由此，外部的定位系统可根据所述定位信号给配准工具定位，实现了配准，无需贴标志点就能完成配准，操作简单方便。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201520436824.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种用于手术导航的触敏式配准工具及配准系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连现代医疗设备科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种带有呼吸补偿的4D放疗计划的实施方法及其设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开了一种带有呼吸补偿的4D放疗计划的实施方法及其设备，所述实施方法包括如下步骤：输入患者不同呼吸时相的4D医学图像，勾画出各呼吸时相的靶区和危及器官的组织轮廓；设计4D放疗计划；监测患者呼吸时相并预测患者呼吸时相变化；调用对应呼吸时相的射野参数；控制医疗X射线机形成相应射野，以及完成相应的出束照射动作；判断本单分次4D放疗是否结束，是则形成患者本单分次4D放疗中的呼吸曲线图；计算本单分次放疗中患者所接受的实际剂量分布；将计算出的实际剂量分布与本单分次4D放疗计划的计划剂量分布进行对比，根据对比结果确定是否需要优化后续分次4D放疗计划。本发明能够达到精确四维放疗的目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201410544788.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开了一种影像引导及呼吸运动分析系统，包括C型臂及X射线影像系统、治疗控制系统、数据库管理系统、治疗床和影像引导放射治疗系统，GRT系统由影像采集软件系统、呼吸运动追踪信号采集软件系统、影像引导系统和呼吸运动分析系统组成；治疗床与治疗控制系统电通信连接，治疗控制系统与影像引导系统、呼吸运动分析系统电通信连接，数据库管理系统分别与影像引导系统、呼吸运动分析系统电通信连接；影像引导系统、呼吸运动分析系统、影像采集软件系统、呼吸运动追踪系统采集软件系统之间为电通信连接；呼吸运动追踪信号采集软件系统还与红外呼吸运动追踪系统电通信连接。本发明可以实现交叉定位二维X光影像和三维CBCT影像的影像引导分析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201510382046.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像引导及呼吸运动分析系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞地玛医学科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201911246815.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本发明公开一种面向肺部经皮穿刺的呼吸运动补偿方法，是利用术前4DCT影像构建四维可视化模型，提取呼吸运动轨迹，基于四维可视化模型和呼吸运动轨迹，选取目标点和皮肤入针点，生成穿刺路径，确定穿刺针的初始位置、方向以及穿刺深度；术中穿刺进针过程中，呼吸监测设备实时获取患者的呼吸信号并输入穿刺机器人的控制系统中，控制系统通过分析呼吸信号特征参数，引导穿刺机器人迭代地调整进针速度来确保针尖在指定时刻到达目标点，从而补偿呼吸引起的肿瘤位移。本发明的方法允许在自由呼吸状态下执行穿刺，适用范围更广，有助于减轻患者痛苦和提高手术成功率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种面向肺部经皮穿刺的呼吸运动补偿方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,19 +596,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,12 +633,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,9 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -328,6 +658,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,42 +955,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" location="相关专利!C2" display="穿刺机器人呼吸随动方法" xr:uid="{339840CC-533F-4FBC-AFBD-EA283553CF49}"/>
+    <hyperlink ref="B3" location="相关专利!C3" display="辅助穿刺机器人及其控制方法、计算机设备、存储介质" xr:uid="{530DC6CC-387D-4C9E-A1AD-2147AA8EDD5D}"/>
+    <hyperlink ref="B4" location="相关专利!C4" display="基于狼群算法的穿刺机器人柔性针运动路径规划装置及方法" xr:uid="{6CFB9E05-C2CA-420D-A290-436991007E8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,266 +1216,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C4579-4D06-477F-BCC7-EC1EB2DA0815}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="52.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="52.75" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>